--- a/data files/Purchase Order/TULIP EAR BUDS.xlsx
+++ b/data files/Purchase Order/TULIP EAR BUDS.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2D56C5-8E9F-47B5-B81F-B1A1575108A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031429B5-2176-49FA-B24E-009F2696B087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5736" yWindow="0" windowWidth="17304" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ORDER-FORM" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>To,</t>
   </si>
@@ -146,9 +146,6 @@
     <t>JAR</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>CASE</t>
   </si>
   <si>
@@ -161,7 +158,7 @@
     <t>Color</t>
   </si>
   <si>
-    <t>v</t>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -414,7 +411,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -501,9 +498,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -922,26 +916,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F13" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.109375" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="22"/>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
       <c r="E1" s="23"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="22"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -949,7 +943,7 @@
       <c r="E2" s="23"/>
       <c r="F2" s="23"/>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.4">
       <c r="A3" s="24" t="s">
         <v>3</v>
       </c>
@@ -959,7 +953,7 @@
       <c r="E3" s="23"/>
       <c r="F3" s="23"/>
     </row>
-    <row r="4" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>10</v>
       </c>
@@ -969,7 +963,7 @@
       <c r="E4" s="22"/>
       <c r="F4" s="39"/>
     </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="22"/>
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
@@ -977,7 +971,7 @@
       <c r="E5" s="26"/>
       <c r="F5" s="27"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>9</v>
       </c>
@@ -987,7 +981,7 @@
       <c r="E6" s="22"/>
       <c r="F6" s="29"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>12</v>
       </c>
@@ -997,7 +991,7 @@
       <c r="E7" s="22"/>
       <c r="F7" s="29"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="28"/>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
@@ -1005,7 +999,7 @@
       <c r="E8" s="22"/>
       <c r="F8" s="29"/>
     </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>0</v>
       </c>
@@ -1015,9 +1009,11 @@
       <c r="E9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="46"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F9" s="45">
+        <v>45644</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
@@ -1026,9 +1022,11 @@
       <c r="E10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="40"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F10" s="40" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
@@ -1037,7 +1035,7 @@
       <c r="E11" s="27"/>
       <c r="F11" s="30"/>
     </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="27"/>
       <c r="B12" s="31"/>
       <c r="C12" s="20"/>
@@ -1045,12 +1043,12 @@
       <c r="E12" s="27"/>
       <c r="F12" s="27"/>
     </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>2</v>
       </c>
@@ -1058,20 +1056,20 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="33" t="s">
         <v>27</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>28</v>
       </c>
       <c r="D16" s="34" t="s">
         <v>7</v>
@@ -1080,7 +1078,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="35"/>
       <c r="B17" s="36"/>
       <c r="C17" s="37"/>
@@ -1088,7 +1086,7 @@
       <c r="E17" s="37"/>
       <c r="F17" s="37"/>
     </row>
-    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="41">
         <v>1</v>
       </c>
@@ -1096,15 +1094,13 @@
         <v>15</v>
       </c>
       <c r="C18" s="42"/>
-      <c r="D18" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="47" t="s">
+      <c r="D18" s="42"/>
+      <c r="E18" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="47"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F18" s="46"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="41">
         <v>2</v>
       </c>
@@ -1112,25 +1108,25 @@
         <v>16</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" s="42">
         <v>4</v>
       </c>
-      <c r="E19" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="48"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E19" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="47"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="41"/>
       <c r="B20" s="41"/>
       <c r="C20" s="42"/>
       <c r="D20" s="4"/>
       <c r="E20" s="42"/>
-      <c r="F20" s="48"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F20" s="47"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="41">
         <v>3</v>
       </c>
@@ -1141,12 +1137,12 @@
       <c r="D21" s="42">
         <v>480</v>
       </c>
-      <c r="E21" s="48" t="s">
+      <c r="E21" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="48"/>
-    </row>
-    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F21" s="47"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="41">
         <v>4</v>
       </c>
@@ -1154,102 +1150,102 @@
         <v>18</v>
       </c>
       <c r="C22" s="42"/>
-      <c r="D22" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="48" t="s">
+      <c r="D22" s="42">
+        <v>240</v>
+      </c>
+      <c r="E22" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="48"/>
-    </row>
-    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F22" s="47"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="41"/>
       <c r="B23" s="41"/>
       <c r="C23" s="42"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="45"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D23" s="42"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="41"/>
       <c r="C24" s="42"/>
       <c r="D24" s="41"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="45"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="49" t="s">
+      <c r="E24" s="43"/>
+      <c r="F24" s="44"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="48" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="9"/>
       <c r="D25" s="8"/>
     </row>
-    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="50" t="s">
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="49" t="s">
         <v>21</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="10"/>
     </row>
-    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="21"/>
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
     </row>
-    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="21"/>
       <c r="B28" s="6"/>
       <c r="C28" s="10"/>
       <c r="D28" s="12"/>
     </row>
-    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="6"/>
       <c r="C29" s="10"/>
       <c r="D29" s="12"/>
     </row>
-    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="3"/>
       <c r="C30" s="10"/>
       <c r="D30" s="12"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="14"/>
       <c r="C31" s="10"/>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="3"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="16"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
       <c r="B34" s="3"/>
     </row>
-    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D38" s="12"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D39" s="18"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C40" s="19"/>
       <c r="D40" s="18"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C41" s="19"/>
       <c r="D41" s="18"/>
     </row>
-    <row r="42" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
     </row>
